--- a/resnet-gluon/ResNetParam.xlsx
+++ b/resnet-gluon/ResNetParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Input_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mx.init.Normal(sigma=0.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(224, 224)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,43 +92,43 @@
     <t>Epoch9</t>
   </si>
   <si>
+    <t>Learning1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning3</t>
+  </si>
+  <si>
+    <t>Learning4</t>
+  </si>
+  <si>
+    <t>Learning5</t>
+  </si>
+  <si>
+    <t>Learning6</t>
+  </si>
+  <si>
+    <t>Epoch0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(224, 224)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx.init.Xavier()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>adam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning3</t>
-  </si>
-  <si>
-    <t>Learning4</t>
-  </si>
-  <si>
-    <t>Learning5</t>
-  </si>
-  <si>
-    <t>Learning6</t>
-  </si>
-  <si>
-    <t>Epoch0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sgd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(224, 224)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mx.init.Xavier()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,6 +366,120 @@
         <a:xfrm>
           <a:off x="5543550" y="3600449"/>
           <a:ext cx="2019500" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1867563</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>448235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8684559" y="3619500"/>
+          <a:ext cx="1867563" cy="448235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2323038</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>476251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10749644" y="3469822"/>
+          <a:ext cx="2317594" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>403289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13161818" y="3532909"/>
+          <a:ext cx="1956955" cy="403289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -690,9 +800,9 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -700,29 +810,30 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="31.25" customWidth="1"/>
     <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="25.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -731,22 +842,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -767,10 +878,10 @@
         <v>64</v>
       </c>
       <c r="G3" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -779,22 +890,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -806,19 +917,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -839,7 +950,7 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="1">
         <v>0.1</v>
@@ -874,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>0.95342548076922995</v>
@@ -885,12 +996,14 @@
       <c r="E8" s="1">
         <v>0.95643028846153799</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>9.7956730769230699E-2</v>
+      </c>
       <c r="G8" s="1">
-        <v>9.8056000000000004E-2</v>
+        <v>0.92978766025641002</v>
       </c>
       <c r="H8" s="1">
-        <v>0.51492300000000002</v>
+        <v>0.72786458333333304</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -907,12 +1020,14 @@
       <c r="E9" s="1">
         <v>0.96654647435897401</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>9.8056891025640996E-2</v>
+      </c>
       <c r="G9" s="1">
-        <v>9.8056000000000004E-2</v>
+        <v>0.95342548076922995</v>
       </c>
       <c r="H9" s="1">
-        <v>0.75100100000000003</v>
+        <v>0.70222355769230704</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -929,10 +1044,14 @@
       <c r="E10" s="2">
         <v>0.96885016025641002</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>9.7856570512820498E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.97896634615384603</v>
+      </c>
       <c r="H10" s="1">
-        <v>0.80989500000000003</v>
+        <v>0.84745592948717896</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -949,16 +1068,20 @@
       <c r="E11" s="2">
         <v>0.97275641025641002</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>9.7856570512820498E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.98978365384615297</v>
+      </c>
       <c r="H11" s="1">
-        <v>0.84064499999999998</v>
+        <v>0.903445512820512</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>0.97175480769230704</v>
@@ -969,16 +1092,20 @@
       <c r="E12" s="2">
         <v>0.97716346153846101</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>9.7956730769230699E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.98988381410256399</v>
+      </c>
       <c r="H12" s="1">
-        <v>0.86227900000000002</v>
+        <v>0.94491185897435803</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>0.92067307692307598</v>
@@ -989,16 +1116,20 @@
       <c r="E13" s="2">
         <v>0.97996794871794801</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1">
+        <v>9.7956730769230699E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.99228766025641002</v>
+      </c>
       <c r="H13" s="1">
-        <v>0.87279600000000002</v>
+        <v>0.94451121794871795</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>0.95602964743589702</v>
@@ -1009,16 +1140,20 @@
       <c r="E14" s="2">
         <v>0.98066907051282004</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1">
+        <v>9.8056891025640996E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.99158653846153799</v>
+      </c>
       <c r="H14" s="1">
-        <v>0.89052399999999998</v>
+        <v>0.96854967948717896</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>0.98237179487179405</v>
@@ -1029,16 +1164,20 @@
       <c r="E15" s="2">
         <v>0.97846554487179405</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1">
+        <v>9.7756410256410201E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.99008413461538403</v>
+      </c>
       <c r="H15" s="1">
-        <v>0.90104099999999998</v>
+        <v>0.92037259615384603</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>0.991085737179487</v>
@@ -1049,16 +1188,20 @@
       <c r="E16" s="2">
         <v>0.98417467948717896</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1">
+        <v>9.7956730769230699E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.98828125</v>
+      </c>
       <c r="H16" s="1">
-        <v>0.90805199999999997</v>
+        <v>0.96704727564102499</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>0.99078525641025605</v>
@@ -1069,10 +1212,14 @@
       <c r="E17" s="2">
         <v>0.98677884615384603</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>9.8056891025640996E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.99208733974358898</v>
+      </c>
       <c r="H17" s="1">
-        <v>0.91366099999999995</v>
+        <v>0.89683493589743501</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/resnet-gluon/ResNetParam.xlsx
+++ b/resnet-gluon/ResNetParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Input_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>adam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,6 +492,39 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1958687" cy="403289"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13134975" y="3562350"/>
+          <a:ext cx="1958687" cy="403289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -797,12 +834,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="J10" sqref="J10"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -812,9 +849,10 @@
     <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.375" customWidth="1"/>
     <col min="8" max="8" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -835,8 +873,11 @@
       <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -859,8 +900,9 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -883,8 +925,9 @@
       <c r="H3" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -907,8 +950,9 @@
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -931,8 +975,9 @@
       <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -955,8 +1000,9 @@
       <c r="H6" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -979,8 +1025,9 @@
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1005,8 +1052,9 @@
       <c r="H8" s="1">
         <v>0.72786458333333304</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1029,8 +1077,9 @@
       <c r="H9" s="1">
         <v>0.70222355769230704</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1053,8 +1102,9 @@
       <c r="H10" s="1">
         <v>0.84745592948717896</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -1077,8 +1127,9 @@
       <c r="H11" s="1">
         <v>0.903445512820512</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -1101,8 +1152,9 @@
       <c r="H12" s="1">
         <v>0.94491185897435803</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -1125,8 +1177,9 @@
       <c r="H13" s="1">
         <v>0.94451121794871795</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -1149,8 +1202,9 @@
       <c r="H14" s="1">
         <v>0.96854967948717896</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -1173,8 +1227,9 @@
       <c r="H15" s="1">
         <v>0.92037259615384603</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -1197,8 +1252,9 @@
       <c r="H16" s="1">
         <v>0.96704727564102499</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -1221,8 +1277,9 @@
       <c r="H17" s="1">
         <v>0.89683493589743501</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:A17"/>

--- a/resnet-gluon/ResNetParam.xlsx
+++ b/resnet-gluon/ResNetParam.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Input_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>Learning7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +843,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+      <selection pane="topRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -900,7 +904,9 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -925,7 +931,9 @@
       <c r="H3" s="1">
         <v>64</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -950,7 +958,9 @@
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -975,7 +985,9 @@
       <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -1000,7 +1012,9 @@
       <c r="H6" s="1">
         <v>0.1</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -1025,7 +1039,9 @@
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">

--- a/resnet-gluon/ResNetParam.xlsx
+++ b/resnet-gluon/ResNetParam.xlsx
@@ -92,51 +92,52 @@
     <t>Epoch9</t>
   </si>
   <si>
+    <t>Learning2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning4</t>
+  </si>
+  <si>
+    <t>Learning5</t>
+  </si>
+  <si>
+    <t>Learning6</t>
+  </si>
+  <si>
+    <t>Epoch0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(224, 224)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mx.init.Xavier()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Learning1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Learning2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Learning3</t>
-  </si>
-  <si>
-    <t>Learning4</t>
-  </si>
-  <si>
-    <t>Learning5</t>
-  </si>
-  <si>
-    <t>Learning6</t>
-  </si>
-  <si>
-    <t>Epoch0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sgd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(224, 224)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mx.init.Xavier()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,17 +267,907 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98677884615384603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99078525641025605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8157051282051197E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8056891025640996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CB9-4E04-A93E-B5A8E2EB8162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="38621968"/>
+        <c:axId val="38626128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38621968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38626128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38626128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38621968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>36635</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>42997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>2058866</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>466431</xdr:rowOff>
@@ -296,7 +1187,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1560635" y="3655170"/>
+          <a:off x="1560635" y="3662497"/>
           <a:ext cx="2022231" cy="423434"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -308,13 +1199,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>33129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1881465</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>463826</xdr:rowOff>
@@ -334,7 +1225,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619501" y="3553238"/>
+          <a:off x="3927419" y="3652629"/>
           <a:ext cx="1864899" cy="430697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -346,16 +1237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736227</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2038550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>466724</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2218765</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26872</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -372,8 +1263,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5543550" y="3600449"/>
-          <a:ext cx="2019500" cy="428625"/>
+          <a:off x="1419786" y="3691218"/>
+          <a:ext cx="2322979" cy="493036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -428,8 +1319,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2323038</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3421</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>476251</xdr:rowOff>
     </xdr:to>
@@ -448,8 +1339,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10749644" y="3469822"/>
-          <a:ext cx="2317594" cy="476250"/>
+          <a:off x="10757648" y="3619501"/>
+          <a:ext cx="2323037" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -466,8 +1357,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1962049</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>403289</xdr:rowOff>
     </xdr:to>
@@ -486,8 +1377,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13161818" y="3532909"/>
-          <a:ext cx="1956955" cy="403289"/>
+          <a:off x="13144500" y="3619500"/>
+          <a:ext cx="1962049" cy="403289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -503,10 +1394,10 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1958687" cy="403289"/>
+    <xdr:ext cx="1989216" cy="409575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="9" name="그림 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -519,8 +1410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13134975" y="3562350"/>
-          <a:ext cx="1958687" cy="403289"/>
+          <a:off x="15071912" y="3619500"/>
+          <a:ext cx="1989216" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -529,6 +1420,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259983</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>202265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="차트 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -841,44 +1762,40 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="K10" sqref="K10"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="3" max="9" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -887,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
@@ -941,25 +1858,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -971,22 +1888,22 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -995,13 +1912,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.01</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1E-3</v>
       </c>
       <c r="F6" s="1">
         <v>0.5</v>
@@ -1048,16 +1965,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
+        <v>0.95643028846153799</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.95342548076922995</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>9.8157051282051197E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.95643028846153799</v>
       </c>
       <c r="F8" s="1">
         <v>9.7956730769230699E-2</v>
@@ -1068,7 +1985,9 @@
       <c r="H8" s="1">
         <v>0.72786458333333304</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>0.72786458333333304</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -1076,13 +1995,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
+        <v>0.96654647435897401</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.97956730769230704</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>9.8056891025640996E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.96654647435897401</v>
       </c>
       <c r="F9" s="1">
         <v>9.8056891025640996E-2</v>
@@ -1093,21 +2012,23 @@
       <c r="H9" s="1">
         <v>0.70222355769230704</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>0.70222355769230704</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
+        <v>0.96885016025641002</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.98577724358974295</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>9.8056891025640996E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.96885016025641002</v>
       </c>
       <c r="F10" s="1">
         <v>9.7856570512820498E-2</v>
@@ -1118,7 +2039,9 @@
       <c r="H10" s="1">
         <v>0.84745592948717896</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>0.84745592948717896</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1126,13 +2049,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
+        <v>0.97275641025641002</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.96895032051282004</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>9.7956730769230699E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.97275641025641002</v>
       </c>
       <c r="F11" s="1">
         <v>9.7856570512820498E-2</v>
@@ -1143,21 +2066,23 @@
       <c r="H11" s="1">
         <v>0.903445512820512</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0.903445512820512</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
+        <v>0.97716346153846101</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.97175480769230704</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>9.8056891025640996E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.97716346153846101</v>
       </c>
       <c r="F12" s="1">
         <v>9.7956730769230699E-2</v>
@@ -1168,21 +2093,23 @@
       <c r="H12" s="1">
         <v>0.94491185897435803</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.94491185897435803</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
+        <v>0.97996794871794801</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.92067307692307598</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>9.8056891025640996E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.97996794871794801</v>
       </c>
       <c r="F13" s="1">
         <v>9.7956730769230699E-2</v>
@@ -1193,21 +2120,23 @@
       <c r="H13" s="1">
         <v>0.94451121794871795</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0.94451121794871795</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
+        <v>0.98066907051282004</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.95602964743589702</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>9.7956730769230699E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.98066907051282004</v>
       </c>
       <c r="F14" s="1">
         <v>9.8056891025640996E-2</v>
@@ -1218,21 +2147,23 @@
       <c r="H14" s="1">
         <v>0.96854967948717896</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>0.96854967948717896</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
+        <v>0.97846554487179405</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.98237179487179405</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>9.7956730769230699E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.97846554487179405</v>
       </c>
       <c r="F15" s="1">
         <v>9.7756410256410201E-2</v>
@@ -1243,21 +2174,23 @@
       <c r="H15" s="1">
         <v>0.92037259615384603</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>0.92037259615384603</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
+        <v>0.98417467948717896</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.991085737179487</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>9.8056891025640996E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.98417467948717896</v>
       </c>
       <c r="F16" s="1">
         <v>9.7956730769230699E-2</v>
@@ -1268,21 +2201,23 @@
       <c r="H16" s="1">
         <v>0.96704727564102499</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>0.96704727564102499</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
+        <v>0.98677884615384603</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.99078525641025605</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>9.8157051282051197E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.98677884615384603</v>
       </c>
       <c r="F17" s="1">
         <v>9.8056891025640996E-2</v>
@@ -1293,7 +2228,9 @@
       <c r="H17" s="1">
         <v>0.89683493589743501</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0.89683493589743501</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
